--- a/Burndownchart_Mondpichl_Sprint3.xlsx
+++ b/Burndownchart_Mondpichl_Sprint3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B086C22F-0FB2-42AA-9F51-C6C06EC660E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15DFBA-DF15-41BD-A4C3-44584486C1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -130,7 +132,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +204,13 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -680,10 +693,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,8 +831,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,7 +991,7 @@
                   <c:v>75.896825396825392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>52.896825396825392</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1510,7 +1528,7 @@
                   <c:v>75.896825396825392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>52.896825396825392</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3494,14 +3512,16 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="70.73046875" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="7" width="5.73046875" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="6.1328125" customWidth="1"/>
+    <col min="5" max="7" width="5.73046875" customWidth="1"/>
     <col min="8" max="12" width="5.73046875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8.86328125" customWidth="1"/>
     <col min="14" max="14" width="30.6640625" customWidth="1"/>
@@ -3734,7 +3754,9 @@
         <f>B10/(0.5+8.5)*0.5</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="19">
+        <v>10</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -3745,11 +3767,11 @@
       <c r="L10" s="23"/>
       <c r="M10" s="28">
         <f t="shared" si="0"/>
-        <v>32.111111111111114</v>
+        <v>22.111111111111111</v>
       </c>
       <c r="N10" s="37">
         <f t="shared" si="1"/>
-        <v>5.5555555555555469E-2</v>
+        <v>0.34967320261437906</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -3795,7 +3817,9 @@
         <f>B12/(3+1)*3</f>
         <v>25.5</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="19">
+        <v>8</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -3806,11 +3830,10 @@
       <c r="L12" s="23"/>
       <c r="M12" s="28">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="N12" s="37">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
@@ -3823,7 +3846,9 @@
       <c r="C13" s="22">
         <v>0</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="47">
+        <v>5</v>
+      </c>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -3834,11 +3859,11 @@
       <c r="L13" s="23"/>
       <c r="M13" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N13" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.38461538461538458</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
@@ -4381,9 +4406,9 @@
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
         <v>75.896825396825392</v>
       </c>
-      <c r="D38" s="11" t="e">
+      <c r="D38" s="11">
         <f t="shared" ref="D38:L38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>#N/A</v>
+        <v>52.896825396825392</v>
       </c>
       <c r="E38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4419,11 +4444,11 @@
       </c>
       <c r="M38" s="35">
         <f>SUM(M8:M37)</f>
-        <v>75.896825396825392</v>
+        <v>52.896825396825392</v>
       </c>
       <c r="N38" s="30">
         <f t="shared" si="1"/>
-        <v>0.46172464257570645</v>
+        <v>0.62484520995159298</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">

--- a/Burndownchart_Mondpichl_Sprint3.xlsx
+++ b/Burndownchart_Mondpichl_Sprint3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA15DFBA-DF15-41BD-A4C3-44584486C1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB3B47A-EB4F-4EA0-BE52-6CE94F0320E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -132,11 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +200,6 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -287,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -692,12 +681,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -831,12 +852,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -988,13 +1020,13 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.896825396825392</c:v>
+                  <c:v>75.611111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.896825396825392</c:v>
+                  <c:v>38.611111111111114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.61111111111111427</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1525,13 +1557,13 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.896825396825392</c:v>
+                  <c:v>75.611111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.896825396825392</c:v>
+                  <c:v>38.611111111111114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.61111111111111427</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3508,11 +3540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3649,13 +3681,13 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="47">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="47">
         <v>3</v>
       </c>
       <c r="F7" s="1">
@@ -3686,19 +3718,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="18">
         <v>13</v>
       </c>
-      <c r="C8" s="19">
-        <f>B8/(4+3)*2</f>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="50">
+        <v>4</v>
+      </c>
+      <c r="D8" s="51">
+        <v>9</v>
+      </c>
+      <c r="E8" s="50">
+        <v>0</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
@@ -3708,25 +3743,29 @@
       <c r="L8" s="20"/>
       <c r="M8" s="27">
         <f t="shared" ref="M8:M37" si="0">B8-SUM(C8:L8)</f>
-        <v>9.2857142857142847</v>
+        <v>0</v>
       </c>
       <c r="N8" s="37">
         <f t="shared" ref="N8:N38" si="1">IFERROR(1-(M8/B8),"")</f>
-        <v>0.28571428571428581</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="21">
         <v>13</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="50">
         <v>0</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="51">
+        <v>5</v>
+      </c>
+      <c r="E9" s="50">
+        <v>8</v>
+      </c>
       <c r="F9" s="23"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
@@ -3736,28 +3775,30 @@
       <c r="L9" s="23"/>
       <c r="M9" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N9" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="21">
         <v>34</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="50">
         <f>B10/(0.5+8.5)*0.5</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="51">
         <v>10</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="50">
+        <v>22</v>
+      </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
@@ -3767,27 +3808,27 @@
       <c r="L10" s="23"/>
       <c r="M10" s="28">
         <f t="shared" si="0"/>
-        <v>22.111111111111111</v>
+        <v>0.11111111111111427</v>
       </c>
       <c r="N10" s="37">
         <f t="shared" si="1"/>
-        <v>0.34967320261437906</v>
+        <v>0.99673202614379075</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="21">
         <v>34</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="50">
         <v>34</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="51">
         <v>0</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="50">
         <v>0</v>
       </c>
       <c r="F11" s="23"/>
@@ -3806,21 +3847,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="21">
         <v>34</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="50">
         <f>B12/(3+1)*3</f>
         <v>25.5</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="51">
         <v>8</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="50">
+        <v>0</v>
+      </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
@@ -3843,13 +3886,15 @@
       <c r="B13" s="21">
         <v>13</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="50">
         <v>0</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="51">
         <v>5</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="50">
+        <v>8</v>
+      </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
@@ -3859,19 +3904,19 @@
       <c r="L13" s="23"/>
       <c r="M13" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N13" s="37">
         <f t="shared" si="1"/>
-        <v>0.38461538461538458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
@@ -4404,15 +4449,15 @@
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>75.896825396825392</v>
+        <v>75.611111111111114</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" ref="D38:L38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>52.896825396825392</v>
-      </c>
-      <c r="E38" s="11" t="e">
+        <v>38.611111111111114</v>
+      </c>
+      <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0.61111111111111427</v>
       </c>
       <c r="F38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4444,11 +4489,11 @@
       </c>
       <c r="M38" s="35">
         <f>SUM(M8:M37)</f>
-        <v>52.896825396825392</v>
+        <v>0.61111111111111427</v>
       </c>
       <c r="N38" s="30">
         <f t="shared" si="1"/>
-        <v>0.62484520995159298</v>
+        <v>0.99566587864460199</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4565,7 +4610,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
